--- a/dcd_opamp_dcop_pre_20Mar_tsmc2p_meas.xlsx
+++ b/dcd_opamp_dcop_pre_20Mar_tsmc2p_meas.xlsx
@@ -1945,8 +1945,8 @@
       <c r="BR2">
         <v>138.27552</v>
       </c>
-      <c r="BS2" s="3">
-        <v>-66.31286299999999</v>
+      <c r="BS2">
+        <v>36.447998</v>
       </c>
       <c r="BT2">
         <v>395.76482</v>
@@ -2114,7 +2114,7 @@
         <v>232.92741</v>
       </c>
       <c r="DW2">
-        <v>40.500798</v>
+        <v>143.26166</v>
       </c>
       <c r="DX2">
         <v>468.57164</v>
@@ -28524,8 +28524,8 @@
       <c r="BR54" s="1">
         <v>138.27552</v>
       </c>
-      <c r="BS54" s="3">
-        <v>-66.31286299999999</v>
+      <c r="BS54" s="1">
+        <v>36.447998</v>
       </c>
       <c r="BT54" s="1">
         <v>395.76482</v>
@@ -28693,7 +28693,7 @@
         <v>232.92741</v>
       </c>
       <c r="DW54" s="1">
-        <v>40.500798</v>
+        <v>143.26166</v>
       </c>
       <c r="DX54" s="1">
         <v>468.57164</v>
@@ -28991,8 +28991,8 @@
       <c r="BR55" s="1">
         <v>138.27552</v>
       </c>
-      <c r="BS55" s="3">
-        <v>-66.31286299999999</v>
+      <c r="BS55" s="1">
+        <v>36.447998</v>
       </c>
       <c r="BT55" s="1">
         <v>395.76482</v>
@@ -29160,7 +29160,7 @@
         <v>232.92741</v>
       </c>
       <c r="DW55" s="1">
-        <v>40.500798</v>
+        <v>143.26166</v>
       </c>
       <c r="DX55" s="1">
         <v>468.57164</v>
@@ -30181,7 +30181,7 @@
         <v>138.27552</v>
       </c>
       <c r="BS60" s="1">
-        <v>-66.31286299999999</v>
+        <v>36.447998</v>
       </c>
       <c r="BT60" s="1">
         <v>395.76482</v>
@@ -30349,7 +30349,7 @@
         <v>232.92741</v>
       </c>
       <c r="DW60" s="1">
-        <v>40.500798</v>
+        <v>143.26166</v>
       </c>
       <c r="DX60" s="1">
         <v>468.57164</v>

--- a/dcd_opamp_dcop_pre_20Mar_tsmc2p_meas.xlsx
+++ b/dcd_opamp_dcop_pre_20Mar_tsmc2p_meas.xlsx
@@ -1787,13 +1787,13 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>8.982973700000001E-05</v>
+        <v>9.0344662E-05</v>
       </c>
       <c r="S2">
-        <v>8.982973700000001E-05</v>
+        <v>9.0344662E-05</v>
       </c>
       <c r="T2">
-        <v>7.421762499999999E-05</v>
+        <v>7.4518208E-05</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>184</v>
@@ -1802,13 +1802,13 @@
         <v>184</v>
       </c>
       <c r="W2" s="3">
-        <v>-15.83262</v>
+        <v>-15.935196</v>
       </c>
       <c r="X2">
-        <v>-147.67271</v>
+        <v>-148.88315</v>
       </c>
       <c r="Y2">
-        <v>85.65221099999999</v>
+        <v>85.92137700000001</v>
       </c>
       <c r="Z2" s="3">
         <v>0</v>
@@ -1823,427 +1823,427 @@
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>-926.83731</v>
+        <v>-933.1034000000001</v>
       </c>
       <c r="AE2">
-        <v>109.42509</v>
+        <v>112.23909</v>
       </c>
       <c r="AF2">
-        <v>353.7609</v>
+        <v>352.9299799999999</v>
       </c>
       <c r="AG2">
-        <v>43.105927</v>
+        <v>43.487149</v>
       </c>
       <c r="AH2">
-        <v>193.97377</v>
+        <v>192.16746</v>
       </c>
       <c r="AI2">
-        <v>43.07768599999999</v>
+        <v>43.480406</v>
       </c>
       <c r="AJ2">
-        <v>43.061046</v>
+        <v>43.476786</v>
       </c>
       <c r="AK2">
-        <v>-8.8811512</v>
+        <v>-8.6714533</v>
       </c>
       <c r="AL2">
-        <v>-8.4922529</v>
+        <v>-8.6483177</v>
       </c>
       <c r="AM2">
-        <v>43.121599</v>
+        <v>43.490658</v>
       </c>
       <c r="AN2">
-        <v>9.646524599999999</v>
+        <v>9.1848733</v>
       </c>
       <c r="AO2">
-        <v>43.1216</v>
+        <v>43.490658</v>
       </c>
       <c r="AP2">
-        <v>9.6465231</v>
+        <v>9.184873099999999</v>
       </c>
       <c r="AQ2">
-        <v>43.157112</v>
+        <v>43.497975</v>
       </c>
       <c r="AR2">
-        <v>-64.734488</v>
+        <v>-64.487431</v>
       </c>
       <c r="AS2">
-        <v>-64.734488</v>
+        <v>-64.487432</v>
       </c>
       <c r="AT2">
-        <v>30.315719</v>
+        <v>30.570553</v>
       </c>
       <c r="AU2">
-        <v>30.991517</v>
+        <v>31.19039</v>
       </c>
       <c r="AV2">
-        <v>29.970071</v>
+        <v>30.220049</v>
       </c>
       <c r="AW2">
-        <v>17.136496</v>
+        <v>17.569949</v>
       </c>
       <c r="AX2">
-        <v>142.08121</v>
+        <v>141.22716</v>
       </c>
       <c r="AY2">
-        <v>44.012097</v>
+        <v>43.79437</v>
       </c>
       <c r="AZ2">
-        <v>12.262672</v>
+        <v>12.622995</v>
       </c>
       <c r="BA2">
-        <v>-45.510751</v>
+        <v>-45.16696</v>
       </c>
       <c r="BB2">
-        <v>-45.510751</v>
+        <v>-45.16696</v>
       </c>
       <c r="BC2">
-        <v>30.096773</v>
+        <v>30.185233</v>
       </c>
       <c r="BD2">
-        <v>15.083396</v>
+        <v>14.615623</v>
       </c>
       <c r="BE2">
-        <v>30.096773</v>
+        <v>30.185233</v>
       </c>
       <c r="BF2">
-        <v>15.083396</v>
+        <v>14.615624</v>
       </c>
       <c r="BG2">
-        <v>576.04456</v>
+        <v>577.98806</v>
       </c>
       <c r="BH2" s="3">
-        <v>-90.219223</v>
+        <v>-89.595924</v>
       </c>
       <c r="BI2">
-        <v>105.06117</v>
+        <v>103.40468</v>
       </c>
       <c r="BJ2">
-        <v>303.78514</v>
+        <v>307.98465</v>
       </c>
       <c r="BK2">
-        <v>197.45937</v>
+        <v>202.11842</v>
       </c>
       <c r="BL2">
-        <v>278.1856</v>
+        <v>281.29123</v>
       </c>
       <c r="BM2" s="3">
-        <v>-88.24686399999999</v>
+        <v>-88.31717599999999</v>
       </c>
       <c r="BN2">
-        <v>316.70597</v>
+        <v>319.74674</v>
       </c>
       <c r="BO2">
-        <v>75.052843</v>
+        <v>74.000455</v>
       </c>
       <c r="BP2">
-        <v>138.27549</v>
+        <v>143.39746</v>
       </c>
       <c r="BQ2">
-        <v>75.052845</v>
+        <v>74.000456</v>
       </c>
       <c r="BR2">
-        <v>138.27552</v>
+        <v>143.39746</v>
       </c>
       <c r="BS2">
-        <v>36.447998</v>
+        <v>38.180658</v>
       </c>
       <c r="BT2">
-        <v>395.76482</v>
+        <v>398.55416</v>
       </c>
       <c r="BU2">
-        <v>395.76482</v>
+        <v>398.55416</v>
       </c>
       <c r="BV2">
-        <v>259.70695</v>
+        <v>260.65602</v>
       </c>
       <c r="BW2">
-        <v>167.00176</v>
+        <v>172.96563</v>
       </c>
       <c r="BX2">
-        <v>288.21238</v>
+        <v>291.05043</v>
       </c>
       <c r="BY2">
-        <v>4.0612115</v>
+        <v>3.8853053</v>
       </c>
       <c r="BZ2">
-        <v>281.0155</v>
+        <v>284.05928</v>
       </c>
       <c r="CA2">
-        <v>236.78752</v>
+        <v>237.55573</v>
       </c>
       <c r="CB2">
-        <v>82.85852</v>
+        <v>86.15556100000001</v>
       </c>
       <c r="CC2">
-        <v>270.04802</v>
+        <v>273.56678</v>
       </c>
       <c r="CD2">
-        <v>270.04802</v>
+        <v>273.56678</v>
       </c>
       <c r="CE2">
-        <v>33.057982</v>
+        <v>33.336141</v>
       </c>
       <c r="CF2">
-        <v>106.93899</v>
+        <v>108.9573</v>
       </c>
       <c r="CG2">
-        <v>33.057981</v>
+        <v>33.33614</v>
       </c>
       <c r="CH2">
-        <v>106.93896</v>
+        <v>108.9573</v>
       </c>
       <c r="CI2">
-        <v>359.98318</v>
+        <v>362.79585</v>
       </c>
       <c r="CJ2">
-        <v>353.7609</v>
+        <v>352.9299799999999</v>
       </c>
       <c r="CK2">
-        <v>328.29744</v>
+        <v>328.67699</v>
       </c>
       <c r="CL2">
-        <v>479.17571</v>
+        <v>477.36856</v>
       </c>
       <c r="CM2">
-        <v>328.26646</v>
+        <v>328.66733</v>
       </c>
       <c r="CN2">
-        <v>328.24816</v>
+        <v>328.66213</v>
       </c>
       <c r="CO2">
-        <v>276.19974</v>
+        <v>276.40853</v>
       </c>
       <c r="CP2">
-        <v>276.71412</v>
+        <v>276.55806</v>
       </c>
       <c r="CQ2">
-        <v>328.31458</v>
+        <v>328.68201</v>
       </c>
       <c r="CR2">
-        <v>294.85002</v>
+        <v>294.38841</v>
       </c>
       <c r="CS2">
-        <v>328.31458</v>
+        <v>328.68201</v>
       </c>
       <c r="CT2">
-        <v>294.85002</v>
+        <v>294.38841</v>
       </c>
       <c r="CU2">
-        <v>328.3533</v>
+        <v>328.69242</v>
       </c>
       <c r="CV2" s="3">
-        <v>177.04932</v>
+        <v>177.23226</v>
       </c>
       <c r="CW2" s="3">
-        <v>177.04932</v>
+        <v>177.23226</v>
       </c>
       <c r="CX2">
-        <v>323.12027</v>
+        <v>323.37628</v>
       </c>
       <c r="CY2">
-        <v>323.79928</v>
+        <v>323.99913</v>
       </c>
       <c r="CZ2">
-        <v>322.77295</v>
+        <v>323.02402</v>
       </c>
       <c r="DA2">
-        <v>309.84946</v>
+        <v>310.28249</v>
       </c>
       <c r="DB2">
-        <v>434.91327</v>
+        <v>434.0585</v>
       </c>
       <c r="DC2">
-        <v>336.81017</v>
+        <v>336.59209</v>
       </c>
       <c r="DD2">
-        <v>304.91049</v>
+        <v>305.2684399999999</v>
       </c>
       <c r="DE2" s="3">
-        <v>198.23919</v>
+        <v>198.47428</v>
       </c>
       <c r="DF2" s="3">
-        <v>198.23919</v>
+        <v>198.47428</v>
       </c>
       <c r="DG2">
-        <v>322.91469</v>
+        <v>323.00426</v>
       </c>
       <c r="DH2">
-        <v>307.90215</v>
+        <v>307.43404</v>
       </c>
       <c r="DI2">
-        <v>322.91469</v>
+        <v>323.00426</v>
       </c>
       <c r="DJ2">
-        <v>307.90215</v>
+        <v>307.43404</v>
       </c>
       <c r="DK2">
-        <v>707.4474299999999</v>
+        <v>710.39411</v>
       </c>
       <c r="DL2">
-        <v>25.916629</v>
+        <v>26.23575</v>
       </c>
       <c r="DM2">
-        <v>211.85601</v>
+        <v>210.33969</v>
       </c>
       <c r="DN2">
-        <v>463.39253</v>
+        <v>467.00369</v>
       </c>
       <c r="DO2">
-        <v>304.24383</v>
+        <v>309.05095</v>
       </c>
       <c r="DP2">
-        <v>384.96394</v>
+        <v>388.22242</v>
       </c>
       <c r="DQ2">
         <v>0</v>
       </c>
       <c r="DR2">
-        <v>405.08329</v>
+        <v>408.0717</v>
       </c>
       <c r="DS2">
-        <v>181.85345</v>
+        <v>180.93675</v>
       </c>
       <c r="DT2">
-        <v>232.92739</v>
+        <v>237.88581</v>
       </c>
       <c r="DU2">
-        <v>181.85345</v>
+        <v>180.93675</v>
       </c>
       <c r="DV2">
-        <v>232.92741</v>
+        <v>237.88581</v>
       </c>
       <c r="DW2">
-        <v>143.26166</v>
+        <v>145.11964</v>
       </c>
       <c r="DX2">
-        <v>468.57164</v>
+        <v>471.39255</v>
       </c>
       <c r="DY2">
-        <v>468.57164</v>
+        <v>471.39255</v>
       </c>
       <c r="DZ2">
-        <v>351.31845</v>
+        <v>352.36199</v>
       </c>
       <c r="EA2">
-        <v>258.86804</v>
+        <v>264.90486</v>
       </c>
       <c r="EB2">
-        <v>379.69362</v>
+        <v>382.62456</v>
       </c>
       <c r="EC2">
-        <v>90.783783</v>
+        <v>90.76584199999999</v>
       </c>
       <c r="ED2">
-        <v>416.09428</v>
+        <v>418.80742</v>
       </c>
       <c r="EE2">
-        <v>333.60472</v>
+        <v>334.28957</v>
       </c>
       <c r="EF2">
-        <v>167.80436</v>
+        <v>171.23243</v>
       </c>
       <c r="EG2">
-        <v>336.11494</v>
+        <v>339.70115</v>
       </c>
       <c r="EH2">
-        <v>336.11495</v>
+        <v>339.70115</v>
       </c>
       <c r="EI2">
-        <v>124.58611</v>
+        <v>124.89591</v>
       </c>
       <c r="EJ2">
-        <v>192.9121</v>
+        <v>194.7546</v>
       </c>
       <c r="EK2">
-        <v>124.58611</v>
+        <v>124.89591</v>
       </c>
       <c r="EL2">
-        <v>192.91208</v>
+        <v>194.7546</v>
       </c>
       <c r="EM2">
-        <v>131.40287</v>
+        <v>132.40606</v>
       </c>
       <c r="EN2">
-        <v>116.13585</v>
+        <v>115.83167</v>
       </c>
       <c r="EO2">
-        <v>106.79484</v>
+        <v>106.935</v>
       </c>
       <c r="EP2">
-        <v>159.60739</v>
+        <v>159.01904</v>
       </c>
       <c r="EQ2">
-        <v>106.78446</v>
+        <v>106.93252</v>
       </c>
       <c r="ER2">
-        <v>106.77834</v>
+        <v>106.93119</v>
       </c>
       <c r="ES2">
-        <v>88.24686399999999</v>
+        <v>88.31717599999999</v>
       </c>
       <c r="ET2">
-        <v>88.37732399999999</v>
+        <v>88.32495999999999</v>
       </c>
       <c r="EU2">
-        <v>106.8006</v>
+        <v>106.93629</v>
       </c>
       <c r="EV2">
-        <v>94.651893</v>
+        <v>94.48835299999999</v>
       </c>
       <c r="EW2">
-        <v>106.8006</v>
+        <v>106.93629</v>
       </c>
       <c r="EX2">
-        <v>94.651892</v>
+        <v>94.48835299999999</v>
       </c>
       <c r="EY2">
-        <v>106.81366</v>
+        <v>106.93898</v>
       </c>
       <c r="EZ2">
-        <v>72.806817</v>
+        <v>72.838386</v>
       </c>
       <c r="FA2">
-        <v>72.806817</v>
+        <v>72.838386</v>
       </c>
       <c r="FB2">
-        <v>-91.61149399999999</v>
+        <v>-91.70597099999999</v>
       </c>
       <c r="FC2">
-        <v>-91.86628099999999</v>
+        <v>-91.93923599999999</v>
       </c>
       <c r="FD2">
-        <v>-91.481241</v>
+        <v>-91.574136</v>
       </c>
       <c r="FE2">
-        <v>-86.722572</v>
+        <v>-86.88053599999999</v>
       </c>
       <c r="FF2">
-        <v>-135.07878</v>
+        <v>-134.74814</v>
       </c>
       <c r="FG2">
-        <v>-96.817204</v>
+        <v>-96.733845</v>
       </c>
       <c r="FH2">
-        <v>-84.94583899999999</v>
+        <v>-85.07687</v>
       </c>
       <c r="FI2">
-        <v>-66.06692099999999</v>
+        <v>-66.13437499999999</v>
       </c>
       <c r="FJ2">
-        <v>-66.06692</v>
+        <v>-66.13437499999999</v>
       </c>
       <c r="FK2">
-        <v>-91.52812899999999</v>
+        <v>-91.55976799999999</v>
       </c>
       <c r="FL2">
-        <v>-85.973112</v>
+        <v>-85.797293</v>
       </c>
       <c r="FM2">
-        <v>-91.52812899999999</v>
+        <v>-91.55976799999999</v>
       </c>
       <c r="FN2">
-        <v>-85.973112</v>
+        <v>-85.797293</v>
       </c>
     </row>
     <row r="3" spans="1:170">
@@ -28366,13 +28366,13 @@
         <v>0</v>
       </c>
       <c r="R54" s="1">
-        <v>8.982973700000001E-05</v>
+        <v>9.0344662E-05</v>
       </c>
       <c r="S54" s="1">
-        <v>8.982973700000001E-05</v>
+        <v>9.0344662E-05</v>
       </c>
       <c r="T54" s="1">
-        <v>7.421762499999999E-05</v>
+        <v>7.4518208E-05</v>
       </c>
       <c r="U54" s="1" t="s">
         <v>184</v>
@@ -28381,13 +28381,13 @@
         <v>184</v>
       </c>
       <c r="W54" s="3">
-        <v>-15.83262</v>
+        <v>-15.935196</v>
       </c>
       <c r="X54" s="1">
-        <v>-147.67271</v>
+        <v>-148.88315</v>
       </c>
       <c r="Y54" s="1">
-        <v>85.65221099999999</v>
+        <v>85.92137700000001</v>
       </c>
       <c r="Z54" s="3">
         <v>0</v>
@@ -28402,427 +28402,427 @@
         <v>0</v>
       </c>
       <c r="AD54" s="1">
-        <v>-926.83731</v>
+        <v>-933.1034000000001</v>
       </c>
       <c r="AE54" s="1">
-        <v>109.42509</v>
+        <v>112.23909</v>
       </c>
       <c r="AF54" s="1">
-        <v>353.7609</v>
+        <v>352.9299799999999</v>
       </c>
       <c r="AG54" s="1">
-        <v>43.105927</v>
+        <v>43.487149</v>
       </c>
       <c r="AH54" s="1">
-        <v>193.97377</v>
+        <v>192.16746</v>
       </c>
       <c r="AI54" s="1">
-        <v>43.07768599999999</v>
+        <v>43.480406</v>
       </c>
       <c r="AJ54" s="1">
-        <v>43.061046</v>
+        <v>43.476786</v>
       </c>
       <c r="AK54" s="1">
-        <v>-8.8811512</v>
+        <v>-8.6714533</v>
       </c>
       <c r="AL54" s="1">
-        <v>-8.4922529</v>
+        <v>-8.6483177</v>
       </c>
       <c r="AM54" s="1">
-        <v>43.121599</v>
+        <v>43.490658</v>
       </c>
       <c r="AN54" s="1">
-        <v>9.646524599999999</v>
+        <v>9.1848733</v>
       </c>
       <c r="AO54" s="1">
-        <v>43.1216</v>
+        <v>43.490658</v>
       </c>
       <c r="AP54" s="1">
-        <v>9.6465231</v>
+        <v>9.184873099999999</v>
       </c>
       <c r="AQ54" s="1">
-        <v>43.157112</v>
+        <v>43.497975</v>
       </c>
       <c r="AR54" s="1">
-        <v>-64.734488</v>
+        <v>-64.487431</v>
       </c>
       <c r="AS54" s="1">
-        <v>-64.734488</v>
+        <v>-64.487432</v>
       </c>
       <c r="AT54" s="1">
-        <v>30.315719</v>
+        <v>30.570553</v>
       </c>
       <c r="AU54" s="1">
-        <v>30.991517</v>
+        <v>31.19039</v>
       </c>
       <c r="AV54" s="1">
-        <v>29.970071</v>
+        <v>30.220049</v>
       </c>
       <c r="AW54" s="1">
-        <v>17.136496</v>
+        <v>17.569949</v>
       </c>
       <c r="AX54" s="1">
-        <v>142.08121</v>
+        <v>141.22716</v>
       </c>
       <c r="AY54" s="1">
-        <v>44.012097</v>
+        <v>43.79437</v>
       </c>
       <c r="AZ54" s="1">
-        <v>12.262672</v>
+        <v>12.622995</v>
       </c>
       <c r="BA54" s="1">
-        <v>-45.510751</v>
+        <v>-45.16696</v>
       </c>
       <c r="BB54" s="1">
-        <v>-45.510751</v>
+        <v>-45.16696</v>
       </c>
       <c r="BC54" s="1">
-        <v>30.096773</v>
+        <v>30.185233</v>
       </c>
       <c r="BD54" s="1">
-        <v>15.083396</v>
+        <v>14.615623</v>
       </c>
       <c r="BE54" s="1">
-        <v>30.096773</v>
+        <v>30.185233</v>
       </c>
       <c r="BF54" s="1">
-        <v>15.083396</v>
+        <v>14.615624</v>
       </c>
       <c r="BG54" s="1">
-        <v>576.04456</v>
+        <v>577.98806</v>
       </c>
       <c r="BH54" s="3">
-        <v>-90.219223</v>
+        <v>-89.595924</v>
       </c>
       <c r="BI54" s="1">
-        <v>105.06117</v>
+        <v>103.40468</v>
       </c>
       <c r="BJ54" s="1">
-        <v>303.78514</v>
+        <v>307.98465</v>
       </c>
       <c r="BK54" s="1">
-        <v>197.45937</v>
+        <v>202.11842</v>
       </c>
       <c r="BL54" s="1">
-        <v>278.1856</v>
+        <v>281.29123</v>
       </c>
       <c r="BM54" s="3">
-        <v>-88.24686399999999</v>
+        <v>-88.31717599999999</v>
       </c>
       <c r="BN54" s="1">
-        <v>316.70597</v>
+        <v>319.74674</v>
       </c>
       <c r="BO54" s="1">
-        <v>75.052843</v>
+        <v>74.000455</v>
       </c>
       <c r="BP54" s="1">
-        <v>138.27549</v>
+        <v>143.39746</v>
       </c>
       <c r="BQ54" s="1">
-        <v>75.052845</v>
+        <v>74.000456</v>
       </c>
       <c r="BR54" s="1">
-        <v>138.27552</v>
+        <v>143.39746</v>
       </c>
       <c r="BS54" s="1">
-        <v>36.447998</v>
+        <v>38.180658</v>
       </c>
       <c r="BT54" s="1">
-        <v>395.76482</v>
+        <v>398.55416</v>
       </c>
       <c r="BU54" s="1">
-        <v>395.76482</v>
+        <v>398.55416</v>
       </c>
       <c r="BV54" s="1">
-        <v>259.70695</v>
+        <v>260.65602</v>
       </c>
       <c r="BW54" s="1">
-        <v>167.00176</v>
+        <v>172.96563</v>
       </c>
       <c r="BX54" s="1">
-        <v>288.21238</v>
+        <v>291.05043</v>
       </c>
       <c r="BY54" s="1">
-        <v>4.0612115</v>
+        <v>3.8853053</v>
       </c>
       <c r="BZ54" s="1">
-        <v>281.0155</v>
+        <v>284.05928</v>
       </c>
       <c r="CA54" s="1">
-        <v>236.78752</v>
+        <v>237.55573</v>
       </c>
       <c r="CB54" s="1">
-        <v>82.85852</v>
+        <v>86.15556100000001</v>
       </c>
       <c r="CC54" s="1">
-        <v>270.04802</v>
+        <v>273.56678</v>
       </c>
       <c r="CD54" s="1">
-        <v>270.04802</v>
+        <v>273.56678</v>
       </c>
       <c r="CE54" s="1">
-        <v>33.057982</v>
+        <v>33.336141</v>
       </c>
       <c r="CF54" s="1">
-        <v>106.93899</v>
+        <v>108.9573</v>
       </c>
       <c r="CG54" s="1">
-        <v>33.057981</v>
+        <v>33.33614</v>
       </c>
       <c r="CH54" s="1">
-        <v>106.93896</v>
+        <v>108.9573</v>
       </c>
       <c r="CI54" s="1">
-        <v>359.98318</v>
+        <v>362.79585</v>
       </c>
       <c r="CJ54" s="1">
-        <v>353.7609</v>
+        <v>352.9299799999999</v>
       </c>
       <c r="CK54" s="1">
-        <v>328.29744</v>
+        <v>328.67699</v>
       </c>
       <c r="CL54" s="1">
-        <v>479.17571</v>
+        <v>477.36856</v>
       </c>
       <c r="CM54" s="1">
-        <v>328.26646</v>
+        <v>328.66733</v>
       </c>
       <c r="CN54" s="1">
-        <v>328.24816</v>
+        <v>328.66213</v>
       </c>
       <c r="CO54" s="1">
-        <v>276.19974</v>
+        <v>276.40853</v>
       </c>
       <c r="CP54" s="1">
-        <v>276.71412</v>
+        <v>276.55806</v>
       </c>
       <c r="CQ54" s="1">
-        <v>328.31458</v>
+        <v>328.68201</v>
       </c>
       <c r="CR54" s="1">
-        <v>294.85002</v>
+        <v>294.38841</v>
       </c>
       <c r="CS54" s="1">
-        <v>328.31458</v>
+        <v>328.68201</v>
       </c>
       <c r="CT54" s="1">
-        <v>294.85002</v>
+        <v>294.38841</v>
       </c>
       <c r="CU54" s="1">
-        <v>328.3533</v>
+        <v>328.69242</v>
       </c>
       <c r="CV54" s="3">
-        <v>177.04932</v>
+        <v>177.23226</v>
       </c>
       <c r="CW54" s="3">
-        <v>177.04932</v>
+        <v>177.23226</v>
       </c>
       <c r="CX54" s="1">
-        <v>323.12027</v>
+        <v>323.37628</v>
       </c>
       <c r="CY54" s="1">
-        <v>323.79928</v>
+        <v>323.99913</v>
       </c>
       <c r="CZ54" s="1">
-        <v>322.77295</v>
+        <v>323.02402</v>
       </c>
       <c r="DA54" s="1">
-        <v>309.84946</v>
+        <v>310.28249</v>
       </c>
       <c r="DB54" s="1">
-        <v>434.91327</v>
+        <v>434.0585</v>
       </c>
       <c r="DC54" s="1">
-        <v>336.81017</v>
+        <v>336.59209</v>
       </c>
       <c r="DD54" s="1">
-        <v>304.91049</v>
+        <v>305.2684399999999</v>
       </c>
       <c r="DE54" s="3">
-        <v>198.23919</v>
+        <v>198.47428</v>
       </c>
       <c r="DF54" s="3">
-        <v>198.23919</v>
+        <v>198.47428</v>
       </c>
       <c r="DG54" s="1">
-        <v>322.91469</v>
+        <v>323.00426</v>
       </c>
       <c r="DH54" s="1">
-        <v>307.90215</v>
+        <v>307.43404</v>
       </c>
       <c r="DI54" s="1">
-        <v>322.91469</v>
+        <v>323.00426</v>
       </c>
       <c r="DJ54" s="1">
-        <v>307.90215</v>
+        <v>307.43404</v>
       </c>
       <c r="DK54" s="1">
-        <v>707.4474299999999</v>
+        <v>710.39411</v>
       </c>
       <c r="DL54" s="1">
-        <v>25.916629</v>
+        <v>26.23575</v>
       </c>
       <c r="DM54" s="1">
-        <v>211.85601</v>
+        <v>210.33969</v>
       </c>
       <c r="DN54" s="1">
-        <v>463.39253</v>
+        <v>467.00369</v>
       </c>
       <c r="DO54" s="1">
-        <v>304.24383</v>
+        <v>309.05095</v>
       </c>
       <c r="DP54" s="1">
-        <v>384.96394</v>
+        <v>388.22242</v>
       </c>
       <c r="DQ54" s="1">
         <v>0</v>
       </c>
       <c r="DR54" s="1">
-        <v>405.08329</v>
+        <v>408.0717</v>
       </c>
       <c r="DS54" s="1">
-        <v>181.85345</v>
+        <v>180.93675</v>
       </c>
       <c r="DT54" s="1">
-        <v>232.92739</v>
+        <v>237.88581</v>
       </c>
       <c r="DU54" s="1">
-        <v>181.85345</v>
+        <v>180.93675</v>
       </c>
       <c r="DV54" s="1">
-        <v>232.92741</v>
+        <v>237.88581</v>
       </c>
       <c r="DW54" s="1">
-        <v>143.26166</v>
+        <v>145.11964</v>
       </c>
       <c r="DX54" s="1">
-        <v>468.57164</v>
+        <v>471.39255</v>
       </c>
       <c r="DY54" s="1">
-        <v>468.57164</v>
+        <v>471.39255</v>
       </c>
       <c r="DZ54" s="1">
-        <v>351.31845</v>
+        <v>352.36199</v>
       </c>
       <c r="EA54" s="1">
-        <v>258.86804</v>
+        <v>264.90486</v>
       </c>
       <c r="EB54" s="1">
-        <v>379.69362</v>
+        <v>382.62456</v>
       </c>
       <c r="EC54" s="1">
-        <v>90.783783</v>
+        <v>90.76584199999999</v>
       </c>
       <c r="ED54" s="1">
-        <v>416.09428</v>
+        <v>418.80742</v>
       </c>
       <c r="EE54" s="1">
-        <v>333.60472</v>
+        <v>334.28957</v>
       </c>
       <c r="EF54" s="1">
-        <v>167.80436</v>
+        <v>171.23243</v>
       </c>
       <c r="EG54" s="1">
-        <v>336.11494</v>
+        <v>339.70115</v>
       </c>
       <c r="EH54" s="1">
-        <v>336.11495</v>
+        <v>339.70115</v>
       </c>
       <c r="EI54" s="1">
-        <v>124.58611</v>
+        <v>124.89591</v>
       </c>
       <c r="EJ54" s="1">
-        <v>192.9121</v>
+        <v>194.7546</v>
       </c>
       <c r="EK54" s="1">
-        <v>124.58611</v>
+        <v>124.89591</v>
       </c>
       <c r="EL54" s="1">
-        <v>192.91208</v>
+        <v>194.7546</v>
       </c>
       <c r="EM54" s="1">
-        <v>131.40287</v>
+        <v>132.40606</v>
       </c>
       <c r="EN54" s="1">
-        <v>116.13585</v>
+        <v>115.83167</v>
       </c>
       <c r="EO54" s="1">
-        <v>106.79484</v>
+        <v>106.935</v>
       </c>
       <c r="EP54" s="1">
-        <v>159.60739</v>
+        <v>159.01904</v>
       </c>
       <c r="EQ54" s="1">
-        <v>106.78446</v>
+        <v>106.93252</v>
       </c>
       <c r="ER54" s="1">
-        <v>106.77834</v>
+        <v>106.93119</v>
       </c>
       <c r="ES54" s="1">
-        <v>88.24686399999999</v>
+        <v>88.31717599999999</v>
       </c>
       <c r="ET54" s="1">
-        <v>88.37732399999999</v>
+        <v>88.32495999999999</v>
       </c>
       <c r="EU54" s="1">
-        <v>106.8006</v>
+        <v>106.93629</v>
       </c>
       <c r="EV54" s="1">
-        <v>94.651893</v>
+        <v>94.48835299999999</v>
       </c>
       <c r="EW54" s="1">
-        <v>106.8006</v>
+        <v>106.93629</v>
       </c>
       <c r="EX54" s="1">
-        <v>94.651892</v>
+        <v>94.48835299999999</v>
       </c>
       <c r="EY54" s="1">
-        <v>106.81366</v>
+        <v>106.93898</v>
       </c>
       <c r="EZ54" s="1">
-        <v>72.806817</v>
+        <v>72.838386</v>
       </c>
       <c r="FA54" s="1">
-        <v>72.806817</v>
+        <v>72.838386</v>
       </c>
       <c r="FB54" s="1">
-        <v>-91.61149399999999</v>
+        <v>-91.70597099999999</v>
       </c>
       <c r="FC54" s="1">
-        <v>-91.86628099999999</v>
+        <v>-91.93923599999999</v>
       </c>
       <c r="FD54" s="1">
-        <v>-91.481241</v>
+        <v>-91.574136</v>
       </c>
       <c r="FE54" s="1">
-        <v>-86.722572</v>
+        <v>-86.88053599999999</v>
       </c>
       <c r="FF54" s="1">
-        <v>-135.07878</v>
+        <v>-134.74814</v>
       </c>
       <c r="FG54" s="1">
-        <v>-96.817204</v>
+        <v>-96.733845</v>
       </c>
       <c r="FH54" s="1">
-        <v>-84.94583899999999</v>
+        <v>-85.07687</v>
       </c>
       <c r="FI54" s="1">
-        <v>-66.06692099999999</v>
+        <v>-66.13437499999999</v>
       </c>
       <c r="FJ54" s="1">
-        <v>-66.06692</v>
+        <v>-66.13437499999999</v>
       </c>
       <c r="FK54" s="1">
-        <v>-91.52812899999999</v>
+        <v>-91.55976799999999</v>
       </c>
       <c r="FL54" s="1">
-        <v>-85.973112</v>
+        <v>-85.797293</v>
       </c>
       <c r="FM54" s="1">
-        <v>-91.52812899999999</v>
+        <v>-91.55976799999999</v>
       </c>
       <c r="FN54" s="1">
-        <v>-85.973112</v>
+        <v>-85.797293</v>
       </c>
     </row>
     <row r="55" spans="1:170" s="1" customFormat="1">
@@ -28833,13 +28833,13 @@
         <v>0</v>
       </c>
       <c r="R55" s="1">
-        <v>8.982973700000001E-05</v>
+        <v>9.0344662E-05</v>
       </c>
       <c r="S55" s="1">
-        <v>8.982973700000001E-05</v>
+        <v>9.0344662E-05</v>
       </c>
       <c r="T55" s="1">
-        <v>7.421762499999999E-05</v>
+        <v>7.4518208E-05</v>
       </c>
       <c r="U55" s="1" t="s">
         <v>184</v>
@@ -28848,13 +28848,13 @@
         <v>184</v>
       </c>
       <c r="W55" s="3">
-        <v>-15.83262</v>
+        <v>-15.935196</v>
       </c>
       <c r="X55" s="1">
-        <v>-147.67271</v>
+        <v>-148.88315</v>
       </c>
       <c r="Y55" s="1">
-        <v>85.65221099999999</v>
+        <v>85.92137700000001</v>
       </c>
       <c r="Z55" s="3">
         <v>0</v>
@@ -28869,427 +28869,427 @@
         <v>0</v>
       </c>
       <c r="AD55" s="1">
-        <v>-926.83731</v>
+        <v>-933.1034000000001</v>
       </c>
       <c r="AE55" s="1">
-        <v>109.42509</v>
+        <v>112.23909</v>
       </c>
       <c r="AF55" s="1">
-        <v>353.7609</v>
+        <v>352.9299799999999</v>
       </c>
       <c r="AG55" s="1">
-        <v>43.105927</v>
+        <v>43.487149</v>
       </c>
       <c r="AH55" s="1">
-        <v>193.97377</v>
+        <v>192.16746</v>
       </c>
       <c r="AI55" s="1">
-        <v>43.07768599999999</v>
+        <v>43.480406</v>
       </c>
       <c r="AJ55" s="1">
-        <v>43.061046</v>
+        <v>43.476786</v>
       </c>
       <c r="AK55" s="1">
-        <v>-8.8811512</v>
+        <v>-8.6714533</v>
       </c>
       <c r="AL55" s="1">
-        <v>-8.4922529</v>
+        <v>-8.6483177</v>
       </c>
       <c r="AM55" s="1">
-        <v>43.121599</v>
+        <v>43.490658</v>
       </c>
       <c r="AN55" s="1">
-        <v>9.646524599999999</v>
+        <v>9.1848733</v>
       </c>
       <c r="AO55" s="1">
-        <v>43.1216</v>
+        <v>43.490658</v>
       </c>
       <c r="AP55" s="1">
-        <v>9.6465231</v>
+        <v>9.184873099999999</v>
       </c>
       <c r="AQ55" s="1">
-        <v>43.157112</v>
+        <v>43.497975</v>
       </c>
       <c r="AR55" s="1">
-        <v>-64.734488</v>
+        <v>-64.487431</v>
       </c>
       <c r="AS55" s="1">
-        <v>-64.734488</v>
+        <v>-64.487432</v>
       </c>
       <c r="AT55" s="1">
-        <v>30.315719</v>
+        <v>30.570553</v>
       </c>
       <c r="AU55" s="1">
-        <v>30.991517</v>
+        <v>31.19039</v>
       </c>
       <c r="AV55" s="1">
-        <v>29.970071</v>
+        <v>30.220049</v>
       </c>
       <c r="AW55" s="1">
-        <v>17.136496</v>
+        <v>17.569949</v>
       </c>
       <c r="AX55" s="1">
-        <v>142.08121</v>
+        <v>141.22716</v>
       </c>
       <c r="AY55" s="1">
-        <v>44.012097</v>
+        <v>43.79437</v>
       </c>
       <c r="AZ55" s="1">
-        <v>12.262672</v>
+        <v>12.622995</v>
       </c>
       <c r="BA55" s="1">
-        <v>-45.510751</v>
+        <v>-45.16696</v>
       </c>
       <c r="BB55" s="1">
-        <v>-45.510751</v>
+        <v>-45.16696</v>
       </c>
       <c r="BC55" s="1">
-        <v>30.096773</v>
+        <v>30.185233</v>
       </c>
       <c r="BD55" s="1">
-        <v>15.083396</v>
+        <v>14.615623</v>
       </c>
       <c r="BE55" s="1">
-        <v>30.096773</v>
+        <v>30.185233</v>
       </c>
       <c r="BF55" s="1">
-        <v>15.083396</v>
+        <v>14.615624</v>
       </c>
       <c r="BG55" s="1">
-        <v>576.04456</v>
+        <v>577.98806</v>
       </c>
       <c r="BH55" s="3">
-        <v>-90.219223</v>
+        <v>-89.595924</v>
       </c>
       <c r="BI55" s="1">
-        <v>105.06117</v>
+        <v>103.40468</v>
       </c>
       <c r="BJ55" s="1">
-        <v>303.78514</v>
+        <v>307.98465</v>
       </c>
       <c r="BK55" s="1">
-        <v>197.45937</v>
+        <v>202.11842</v>
       </c>
       <c r="BL55" s="1">
-        <v>278.1856</v>
+        <v>281.29123</v>
       </c>
       <c r="BM55" s="3">
-        <v>-88.24686399999999</v>
+        <v>-88.31717599999999</v>
       </c>
       <c r="BN55" s="1">
-        <v>316.70597</v>
+        <v>319.74674</v>
       </c>
       <c r="BO55" s="1">
-        <v>75.052843</v>
+        <v>74.000455</v>
       </c>
       <c r="BP55" s="1">
-        <v>138.27549</v>
+        <v>143.39746</v>
       </c>
       <c r="BQ55" s="1">
-        <v>75.052845</v>
+        <v>74.000456</v>
       </c>
       <c r="BR55" s="1">
-        <v>138.27552</v>
+        <v>143.39746</v>
       </c>
       <c r="BS55" s="1">
-        <v>36.447998</v>
+        <v>38.180658</v>
       </c>
       <c r="BT55" s="1">
-        <v>395.76482</v>
+        <v>398.55416</v>
       </c>
       <c r="BU55" s="1">
-        <v>395.76482</v>
+        <v>398.55416</v>
       </c>
       <c r="BV55" s="1">
-        <v>259.70695</v>
+        <v>260.65602</v>
       </c>
       <c r="BW55" s="1">
-        <v>167.00176</v>
+        <v>172.96563</v>
       </c>
       <c r="BX55" s="1">
-        <v>288.21238</v>
+        <v>291.05043</v>
       </c>
       <c r="BY55" s="1">
-        <v>4.0612115</v>
+        <v>3.8853053</v>
       </c>
       <c r="BZ55" s="1">
-        <v>281.0155</v>
+        <v>284.05928</v>
       </c>
       <c r="CA55" s="1">
-        <v>236.78752</v>
+        <v>237.55573</v>
       </c>
       <c r="CB55" s="1">
-        <v>82.85852</v>
+        <v>86.15556100000001</v>
       </c>
       <c r="CC55" s="1">
-        <v>270.04802</v>
+        <v>273.56678</v>
       </c>
       <c r="CD55" s="1">
-        <v>270.04802</v>
+        <v>273.56678</v>
       </c>
       <c r="CE55" s="1">
-        <v>33.057982</v>
+        <v>33.336141</v>
       </c>
       <c r="CF55" s="1">
-        <v>106.93899</v>
+        <v>108.9573</v>
       </c>
       <c r="CG55" s="1">
-        <v>33.057981</v>
+        <v>33.33614</v>
       </c>
       <c r="CH55" s="1">
-        <v>106.93896</v>
+        <v>108.9573</v>
       </c>
       <c r="CI55" s="1">
-        <v>359.98318</v>
+        <v>362.79585</v>
       </c>
       <c r="CJ55" s="1">
-        <v>353.7609</v>
+        <v>352.9299799999999</v>
       </c>
       <c r="CK55" s="1">
-        <v>328.29744</v>
+        <v>328.67699</v>
       </c>
       <c r="CL55" s="1">
-        <v>479.17571</v>
+        <v>477.36856</v>
       </c>
       <c r="CM55" s="1">
-        <v>328.26646</v>
+        <v>328.66733</v>
       </c>
       <c r="CN55" s="1">
-        <v>328.24816</v>
+        <v>328.66213</v>
       </c>
       <c r="CO55" s="1">
-        <v>276.19974</v>
+        <v>276.40853</v>
       </c>
       <c r="CP55" s="1">
-        <v>276.71412</v>
+        <v>276.55806</v>
       </c>
       <c r="CQ55" s="1">
-        <v>328.31458</v>
+        <v>328.68201</v>
       </c>
       <c r="CR55" s="1">
-        <v>294.85002</v>
+        <v>294.38841</v>
       </c>
       <c r="CS55" s="1">
-        <v>328.31458</v>
+        <v>328.68201</v>
       </c>
       <c r="CT55" s="1">
-        <v>294.85002</v>
+        <v>294.38841</v>
       </c>
       <c r="CU55" s="1">
-        <v>328.3533</v>
+        <v>328.69242</v>
       </c>
       <c r="CV55" s="3">
-        <v>177.04932</v>
+        <v>177.23226</v>
       </c>
       <c r="CW55" s="3">
-        <v>177.04932</v>
+        <v>177.23226</v>
       </c>
       <c r="CX55" s="1">
-        <v>323.12027</v>
+        <v>323.37628</v>
       </c>
       <c r="CY55" s="1">
-        <v>323.79928</v>
+        <v>323.99913</v>
       </c>
       <c r="CZ55" s="1">
-        <v>322.77295</v>
+        <v>323.02402</v>
       </c>
       <c r="DA55" s="1">
-        <v>309.84946</v>
+        <v>310.28249</v>
       </c>
       <c r="DB55" s="1">
-        <v>434.91327</v>
+        <v>434.0585</v>
       </c>
       <c r="DC55" s="1">
-        <v>336.81017</v>
+        <v>336.59209</v>
       </c>
       <c r="DD55" s="1">
-        <v>304.91049</v>
+        <v>305.2684399999999</v>
       </c>
       <c r="DE55" s="3">
-        <v>198.23919</v>
+        <v>198.47428</v>
       </c>
       <c r="DF55" s="3">
-        <v>198.23919</v>
+        <v>198.47428</v>
       </c>
       <c r="DG55" s="1">
-        <v>322.91469</v>
+        <v>323.00426</v>
       </c>
       <c r="DH55" s="1">
-        <v>307.90215</v>
+        <v>307.43404</v>
       </c>
       <c r="DI55" s="1">
-        <v>322.91469</v>
+        <v>323.00426</v>
       </c>
       <c r="DJ55" s="1">
-        <v>307.90215</v>
+        <v>307.43404</v>
       </c>
       <c r="DK55" s="1">
-        <v>707.4474299999999</v>
+        <v>710.39411</v>
       </c>
       <c r="DL55" s="1">
-        <v>25.916629</v>
+        <v>26.23575</v>
       </c>
       <c r="DM55" s="1">
-        <v>211.85601</v>
+        <v>210.33969</v>
       </c>
       <c r="DN55" s="1">
-        <v>463.39253</v>
+        <v>467.00369</v>
       </c>
       <c r="DO55" s="1">
-        <v>304.24383</v>
+        <v>309.05095</v>
       </c>
       <c r="DP55" s="1">
-        <v>384.96394</v>
+        <v>388.22242</v>
       </c>
       <c r="DQ55" s="1">
         <v>0</v>
       </c>
       <c r="DR55" s="1">
-        <v>405.08329</v>
+        <v>408.0717</v>
       </c>
       <c r="DS55" s="1">
-        <v>181.85345</v>
+        <v>180.93675</v>
       </c>
       <c r="DT55" s="1">
-        <v>232.92739</v>
+        <v>237.88581</v>
       </c>
       <c r="DU55" s="1">
-        <v>181.85345</v>
+        <v>180.93675</v>
       </c>
       <c r="DV55" s="1">
-        <v>232.92741</v>
+        <v>237.88581</v>
       </c>
       <c r="DW55" s="1">
-        <v>143.26166</v>
+        <v>145.11964</v>
       </c>
       <c r="DX55" s="1">
-        <v>468.57164</v>
+        <v>471.39255</v>
       </c>
       <c r="DY55" s="1">
-        <v>468.57164</v>
+        <v>471.39255</v>
       </c>
       <c r="DZ55" s="1">
-        <v>351.31845</v>
+        <v>352.36199</v>
       </c>
       <c r="EA55" s="1">
-        <v>258.86804</v>
+        <v>264.90486</v>
       </c>
       <c r="EB55" s="1">
-        <v>379.69362</v>
+        <v>382.62456</v>
       </c>
       <c r="EC55" s="1">
-        <v>90.783783</v>
+        <v>90.76584199999999</v>
       </c>
       <c r="ED55" s="1">
-        <v>416.09428</v>
+        <v>418.80742</v>
       </c>
       <c r="EE55" s="1">
-        <v>333.60472</v>
+        <v>334.28957</v>
       </c>
       <c r="EF55" s="1">
-        <v>167.80436</v>
+        <v>171.23243</v>
       </c>
       <c r="EG55" s="1">
-        <v>336.11494</v>
+        <v>339.70115</v>
       </c>
       <c r="EH55" s="1">
-        <v>336.11495</v>
+        <v>339.70115</v>
       </c>
       <c r="EI55" s="1">
-        <v>124.58611</v>
+        <v>124.89591</v>
       </c>
       <c r="EJ55" s="1">
-        <v>192.9121</v>
+        <v>194.7546</v>
       </c>
       <c r="EK55" s="1">
-        <v>124.58611</v>
+        <v>124.89591</v>
       </c>
       <c r="EL55" s="1">
-        <v>192.91208</v>
+        <v>194.7546</v>
       </c>
       <c r="EM55" s="1">
-        <v>131.40287</v>
+        <v>132.40606</v>
       </c>
       <c r="EN55" s="1">
-        <v>116.13585</v>
+        <v>115.83167</v>
       </c>
       <c r="EO55" s="1">
-        <v>106.79484</v>
+        <v>106.935</v>
       </c>
       <c r="EP55" s="1">
-        <v>159.60739</v>
+        <v>159.01904</v>
       </c>
       <c r="EQ55" s="1">
-        <v>106.78446</v>
+        <v>106.93252</v>
       </c>
       <c r="ER55" s="1">
-        <v>106.77834</v>
+        <v>106.93119</v>
       </c>
       <c r="ES55" s="1">
-        <v>88.24686399999999</v>
+        <v>88.31717599999999</v>
       </c>
       <c r="ET55" s="1">
-        <v>88.37732399999999</v>
+        <v>88.32495999999999</v>
       </c>
       <c r="EU55" s="1">
-        <v>106.8006</v>
+        <v>106.93629</v>
       </c>
       <c r="EV55" s="1">
-        <v>94.651893</v>
+        <v>94.48835299999999</v>
       </c>
       <c r="EW55" s="1">
-        <v>106.8006</v>
+        <v>106.93629</v>
       </c>
       <c r="EX55" s="1">
-        <v>94.651892</v>
+        <v>94.48835299999999</v>
       </c>
       <c r="EY55" s="1">
-        <v>106.81366</v>
+        <v>106.93898</v>
       </c>
       <c r="EZ55" s="1">
-        <v>72.806817</v>
+        <v>72.838386</v>
       </c>
       <c r="FA55" s="1">
-        <v>72.806817</v>
+        <v>72.838386</v>
       </c>
       <c r="FB55" s="1">
-        <v>-91.61149399999999</v>
+        <v>-91.70597099999999</v>
       </c>
       <c r="FC55" s="1">
-        <v>-91.86628099999999</v>
+        <v>-91.93923599999999</v>
       </c>
       <c r="FD55" s="1">
-        <v>-91.481241</v>
+        <v>-91.574136</v>
       </c>
       <c r="FE55" s="1">
-        <v>-86.722572</v>
+        <v>-86.88053599999999</v>
       </c>
       <c r="FF55" s="1">
-        <v>-135.07878</v>
+        <v>-134.74814</v>
       </c>
       <c r="FG55" s="1">
-        <v>-96.817204</v>
+        <v>-96.733845</v>
       </c>
       <c r="FH55" s="1">
-        <v>-84.94583899999999</v>
+        <v>-85.07687</v>
       </c>
       <c r="FI55" s="1">
-        <v>-66.06692099999999</v>
+        <v>-66.13437499999999</v>
       </c>
       <c r="FJ55" s="1">
-        <v>-66.06692</v>
+        <v>-66.13437499999999</v>
       </c>
       <c r="FK55" s="1">
-        <v>-91.52812899999999</v>
+        <v>-91.55976799999999</v>
       </c>
       <c r="FL55" s="1">
-        <v>-85.973112</v>
+        <v>-85.797293</v>
       </c>
       <c r="FM55" s="1">
-        <v>-91.52812899999999</v>
+        <v>-91.55976799999999</v>
       </c>
       <c r="FN55" s="1">
-        <v>-85.973112</v>
+        <v>-85.797293</v>
       </c>
     </row>
     <row r="56" spans="1:170" s="1" customFormat="1">
@@ -30022,13 +30022,13 @@
         <v>0</v>
       </c>
       <c r="R60" s="1">
-        <v>8.982973700000001E-05</v>
+        <v>9.0344662E-05</v>
       </c>
       <c r="S60" s="1">
-        <v>8.982973700000001E-05</v>
+        <v>9.0344662E-05</v>
       </c>
       <c r="T60" s="1">
-        <v>7.421762499999999E-05</v>
+        <v>7.4518208E-05</v>
       </c>
       <c r="U60" s="1" t="s">
         <v>184</v>
@@ -30037,13 +30037,13 @@
         <v>184</v>
       </c>
       <c r="W60" s="1">
-        <v>-15.83262</v>
+        <v>-15.935196</v>
       </c>
       <c r="X60" s="1">
-        <v>-147.67271</v>
+        <v>-148.88315</v>
       </c>
       <c r="Y60" s="1">
-        <v>85.65221099999999</v>
+        <v>85.92137700000001</v>
       </c>
       <c r="Z60" s="1">
         <v>0</v>
@@ -30058,427 +30058,427 @@
         <v>0</v>
       </c>
       <c r="AD60" s="1">
-        <v>-926.83731</v>
+        <v>-933.1034000000001</v>
       </c>
       <c r="AE60" s="1">
-        <v>109.42509</v>
+        <v>112.23909</v>
       </c>
       <c r="AF60" s="1">
-        <v>353.7609</v>
+        <v>352.9299799999999</v>
       </c>
       <c r="AG60" s="1">
-        <v>43.105927</v>
+        <v>43.487149</v>
       </c>
       <c r="AH60" s="1">
-        <v>193.97377</v>
+        <v>192.16746</v>
       </c>
       <c r="AI60" s="1">
-        <v>43.07768599999999</v>
+        <v>43.480406</v>
       </c>
       <c r="AJ60" s="1">
-        <v>43.061046</v>
+        <v>43.476786</v>
       </c>
       <c r="AK60" s="1">
-        <v>-8.8811512</v>
+        <v>-8.6714533</v>
       </c>
       <c r="AL60" s="1">
-        <v>-8.4922529</v>
+        <v>-8.6483177</v>
       </c>
       <c r="AM60" s="1">
-        <v>43.121599</v>
+        <v>43.490658</v>
       </c>
       <c r="AN60" s="1">
-        <v>9.646524599999999</v>
+        <v>9.1848733</v>
       </c>
       <c r="AO60" s="1">
-        <v>43.1216</v>
+        <v>43.490658</v>
       </c>
       <c r="AP60" s="1">
-        <v>9.6465231</v>
+        <v>9.184873099999999</v>
       </c>
       <c r="AQ60" s="1">
-        <v>43.157112</v>
+        <v>43.497975</v>
       </c>
       <c r="AR60" s="1">
-        <v>-64.734488</v>
+        <v>-64.487431</v>
       </c>
       <c r="AS60" s="1">
-        <v>-64.734488</v>
+        <v>-64.487432</v>
       </c>
       <c r="AT60" s="1">
-        <v>30.315719</v>
+        <v>30.570553</v>
       </c>
       <c r="AU60" s="1">
-        <v>30.991517</v>
+        <v>31.19039</v>
       </c>
       <c r="AV60" s="1">
-        <v>29.970071</v>
+        <v>30.220049</v>
       </c>
       <c r="AW60" s="1">
-        <v>17.136496</v>
+        <v>17.569949</v>
       </c>
       <c r="AX60" s="1">
-        <v>142.08121</v>
+        <v>141.22716</v>
       </c>
       <c r="AY60" s="1">
-        <v>44.012097</v>
+        <v>43.79437</v>
       </c>
       <c r="AZ60" s="1">
-        <v>12.262672</v>
+        <v>12.622995</v>
       </c>
       <c r="BA60" s="1">
-        <v>-45.510751</v>
+        <v>-45.16696</v>
       </c>
       <c r="BB60" s="1">
-        <v>-45.510751</v>
+        <v>-45.16696</v>
       </c>
       <c r="BC60" s="1">
-        <v>30.096773</v>
+        <v>30.185233</v>
       </c>
       <c r="BD60" s="1">
-        <v>15.083396</v>
+        <v>14.615623</v>
       </c>
       <c r="BE60" s="1">
-        <v>30.096773</v>
+        <v>30.185233</v>
       </c>
       <c r="BF60" s="1">
-        <v>15.083396</v>
+        <v>14.615624</v>
       </c>
       <c r="BG60" s="1">
-        <v>576.04456</v>
+        <v>577.98806</v>
       </c>
       <c r="BH60" s="1">
-        <v>-90.219223</v>
+        <v>-89.595924</v>
       </c>
       <c r="BI60" s="1">
-        <v>105.06117</v>
+        <v>103.40468</v>
       </c>
       <c r="BJ60" s="1">
-        <v>303.78514</v>
+        <v>307.98465</v>
       </c>
       <c r="BK60" s="1">
-        <v>197.45937</v>
+        <v>202.11842</v>
       </c>
       <c r="BL60" s="1">
-        <v>278.1856</v>
+        <v>281.29123</v>
       </c>
       <c r="BM60" s="1">
-        <v>-88.24686399999999</v>
+        <v>-88.31717599999999</v>
       </c>
       <c r="BN60" s="1">
-        <v>316.70597</v>
+        <v>319.74674</v>
       </c>
       <c r="BO60" s="1">
-        <v>75.052843</v>
+        <v>74.000455</v>
       </c>
       <c r="BP60" s="1">
-        <v>138.27549</v>
+        <v>143.39746</v>
       </c>
       <c r="BQ60" s="1">
-        <v>75.052845</v>
+        <v>74.000456</v>
       </c>
       <c r="BR60" s="1">
-        <v>138.27552</v>
+        <v>143.39746</v>
       </c>
       <c r="BS60" s="1">
-        <v>36.447998</v>
+        <v>38.180658</v>
       </c>
       <c r="BT60" s="1">
-        <v>395.76482</v>
+        <v>398.55416</v>
       </c>
       <c r="BU60" s="1">
-        <v>395.76482</v>
+        <v>398.55416</v>
       </c>
       <c r="BV60" s="1">
-        <v>259.70695</v>
+        <v>260.65602</v>
       </c>
       <c r="BW60" s="1">
-        <v>167.00176</v>
+        <v>172.96563</v>
       </c>
       <c r="BX60" s="1">
-        <v>288.21238</v>
+        <v>291.05043</v>
       </c>
       <c r="BY60" s="1">
-        <v>4.0612115</v>
+        <v>3.8853053</v>
       </c>
       <c r="BZ60" s="1">
-        <v>281.0155</v>
+        <v>284.05928</v>
       </c>
       <c r="CA60" s="1">
-        <v>236.78752</v>
+        <v>237.55573</v>
       </c>
       <c r="CB60" s="1">
-        <v>82.85852</v>
+        <v>86.15556100000001</v>
       </c>
       <c r="CC60" s="1">
-        <v>270.04802</v>
+        <v>273.56678</v>
       </c>
       <c r="CD60" s="1">
-        <v>270.04802</v>
+        <v>273.56678</v>
       </c>
       <c r="CE60" s="1">
-        <v>33.057982</v>
+        <v>33.336141</v>
       </c>
       <c r="CF60" s="1">
-        <v>106.93899</v>
+        <v>108.9573</v>
       </c>
       <c r="CG60" s="1">
-        <v>33.057981</v>
+        <v>33.33614</v>
       </c>
       <c r="CH60" s="1">
-        <v>106.93896</v>
+        <v>108.9573</v>
       </c>
       <c r="CI60" s="1">
-        <v>359.98318</v>
+        <v>362.79585</v>
       </c>
       <c r="CJ60" s="1">
-        <v>353.7609</v>
+        <v>352.9299799999999</v>
       </c>
       <c r="CK60" s="1">
-        <v>328.29744</v>
+        <v>328.67699</v>
       </c>
       <c r="CL60" s="1">
-        <v>479.17571</v>
+        <v>477.36856</v>
       </c>
       <c r="CM60" s="1">
-        <v>328.26646</v>
+        <v>328.66733</v>
       </c>
       <c r="CN60" s="1">
-        <v>328.24816</v>
+        <v>328.66213</v>
       </c>
       <c r="CO60" s="1">
-        <v>276.19974</v>
+        <v>276.40853</v>
       </c>
       <c r="CP60" s="1">
-        <v>276.71412</v>
+        <v>276.55806</v>
       </c>
       <c r="CQ60" s="1">
-        <v>328.31458</v>
+        <v>328.68201</v>
       </c>
       <c r="CR60" s="1">
-        <v>294.85002</v>
+        <v>294.38841</v>
       </c>
       <c r="CS60" s="1">
-        <v>328.31458</v>
+        <v>328.68201</v>
       </c>
       <c r="CT60" s="1">
-        <v>294.85002</v>
+        <v>294.38841</v>
       </c>
       <c r="CU60" s="1">
-        <v>328.3533</v>
+        <v>328.69242</v>
       </c>
       <c r="CV60" s="1">
-        <v>177.04932</v>
+        <v>177.23226</v>
       </c>
       <c r="CW60" s="1">
-        <v>177.04932</v>
+        <v>177.23226</v>
       </c>
       <c r="CX60" s="1">
-        <v>323.12027</v>
+        <v>323.37628</v>
       </c>
       <c r="CY60" s="1">
-        <v>323.79928</v>
+        <v>323.99913</v>
       </c>
       <c r="CZ60" s="1">
-        <v>322.77295</v>
+        <v>323.02402</v>
       </c>
       <c r="DA60" s="1">
-        <v>309.84946</v>
+        <v>310.28249</v>
       </c>
       <c r="DB60" s="1">
-        <v>434.91327</v>
+        <v>434.0585</v>
       </c>
       <c r="DC60" s="1">
-        <v>336.81017</v>
+        <v>336.59209</v>
       </c>
       <c r="DD60" s="1">
-        <v>304.91049</v>
+        <v>305.2684399999999</v>
       </c>
       <c r="DE60" s="1">
-        <v>198.23919</v>
+        <v>198.47428</v>
       </c>
       <c r="DF60" s="1">
-        <v>198.23919</v>
+        <v>198.47428</v>
       </c>
       <c r="DG60" s="1">
-        <v>322.91469</v>
+        <v>323.00426</v>
       </c>
       <c r="DH60" s="1">
-        <v>307.90215</v>
+        <v>307.43404</v>
       </c>
       <c r="DI60" s="1">
-        <v>322.91469</v>
+        <v>323.00426</v>
       </c>
       <c r="DJ60" s="1">
-        <v>307.90215</v>
+        <v>307.43404</v>
       </c>
       <c r="DK60" s="1">
-        <v>707.4474299999999</v>
+        <v>710.39411</v>
       </c>
       <c r="DL60" s="1">
-        <v>25.916629</v>
+        <v>26.23575</v>
       </c>
       <c r="DM60" s="1">
-        <v>211.85601</v>
+        <v>210.33969</v>
       </c>
       <c r="DN60" s="1">
-        <v>463.39253</v>
+        <v>467.00369</v>
       </c>
       <c r="DO60" s="1">
-        <v>304.24383</v>
+        <v>309.05095</v>
       </c>
       <c r="DP60" s="1">
-        <v>384.96394</v>
+        <v>388.22242</v>
       </c>
       <c r="DQ60" s="1">
         <v>0</v>
       </c>
       <c r="DR60" s="1">
-        <v>405.08329</v>
+        <v>408.0717</v>
       </c>
       <c r="DS60" s="1">
-        <v>181.85345</v>
+        <v>180.93675</v>
       </c>
       <c r="DT60" s="1">
-        <v>232.92739</v>
+        <v>237.88581</v>
       </c>
       <c r="DU60" s="1">
-        <v>181.85345</v>
+        <v>180.93675</v>
       </c>
       <c r="DV60" s="1">
-        <v>232.92741</v>
+        <v>237.88581</v>
       </c>
       <c r="DW60" s="1">
-        <v>143.26166</v>
+        <v>145.11964</v>
       </c>
       <c r="DX60" s="1">
-        <v>468.57164</v>
+        <v>471.39255</v>
       </c>
       <c r="DY60" s="1">
-        <v>468.57164</v>
+        <v>471.39255</v>
       </c>
       <c r="DZ60" s="1">
-        <v>351.31845</v>
+        <v>352.36199</v>
       </c>
       <c r="EA60" s="1">
-        <v>258.86804</v>
+        <v>264.90486</v>
       </c>
       <c r="EB60" s="1">
-        <v>379.69362</v>
+        <v>382.62456</v>
       </c>
       <c r="EC60" s="1">
-        <v>90.783783</v>
+        <v>90.76584199999999</v>
       </c>
       <c r="ED60" s="1">
-        <v>416.09428</v>
+        <v>418.80742</v>
       </c>
       <c r="EE60" s="1">
-        <v>333.60472</v>
+        <v>334.28957</v>
       </c>
       <c r="EF60" s="1">
-        <v>167.80436</v>
+        <v>171.23243</v>
       </c>
       <c r="EG60" s="1">
-        <v>336.11494</v>
+        <v>339.70115</v>
       </c>
       <c r="EH60" s="1">
-        <v>336.11495</v>
+        <v>339.70115</v>
       </c>
       <c r="EI60" s="1">
-        <v>124.58611</v>
+        <v>124.89591</v>
       </c>
       <c r="EJ60" s="1">
-        <v>192.9121</v>
+        <v>194.7546</v>
       </c>
       <c r="EK60" s="1">
-        <v>124.58611</v>
+        <v>124.89591</v>
       </c>
       <c r="EL60" s="1">
-        <v>192.91208</v>
+        <v>194.7546</v>
       </c>
       <c r="EM60" s="1">
-        <v>131.40287</v>
+        <v>132.40606</v>
       </c>
       <c r="EN60" s="1">
-        <v>116.13585</v>
+        <v>115.83167</v>
       </c>
       <c r="EO60" s="1">
-        <v>106.79484</v>
+        <v>106.935</v>
       </c>
       <c r="EP60" s="1">
-        <v>159.60739</v>
+        <v>159.01904</v>
       </c>
       <c r="EQ60" s="1">
-        <v>106.78446</v>
+        <v>106.93252</v>
       </c>
       <c r="ER60" s="1">
-        <v>106.77834</v>
+        <v>106.93119</v>
       </c>
       <c r="ES60" s="1">
-        <v>88.24686399999999</v>
+        <v>88.31717599999999</v>
       </c>
       <c r="ET60" s="1">
-        <v>88.37732399999999</v>
+        <v>88.32495999999999</v>
       </c>
       <c r="EU60" s="1">
-        <v>106.8006</v>
+        <v>106.93629</v>
       </c>
       <c r="EV60" s="1">
-        <v>94.651893</v>
+        <v>94.48835299999999</v>
       </c>
       <c r="EW60" s="1">
-        <v>106.8006</v>
+        <v>106.93629</v>
       </c>
       <c r="EX60" s="1">
-        <v>94.651892</v>
+        <v>94.48835299999999</v>
       </c>
       <c r="EY60" s="1">
-        <v>106.81366</v>
+        <v>106.93898</v>
       </c>
       <c r="EZ60" s="1">
-        <v>72.806817</v>
+        <v>72.838386</v>
       </c>
       <c r="FA60" s="1">
-        <v>72.806817</v>
+        <v>72.838386</v>
       </c>
       <c r="FB60" s="1">
-        <v>-91.61149399999999</v>
+        <v>-91.70597099999999</v>
       </c>
       <c r="FC60" s="1">
-        <v>-91.86628099999999</v>
+        <v>-91.93923599999999</v>
       </c>
       <c r="FD60" s="1">
-        <v>-91.481241</v>
+        <v>-91.574136</v>
       </c>
       <c r="FE60" s="1">
-        <v>-86.722572</v>
+        <v>-86.88053599999999</v>
       </c>
       <c r="FF60" s="1">
-        <v>-135.07878</v>
+        <v>-134.74814</v>
       </c>
       <c r="FG60" s="1">
-        <v>-96.817204</v>
+        <v>-96.733845</v>
       </c>
       <c r="FH60" s="1">
-        <v>-84.94583899999999</v>
+        <v>-85.07687</v>
       </c>
       <c r="FI60" s="1">
-        <v>-66.06692099999999</v>
+        <v>-66.13437499999999</v>
       </c>
       <c r="FJ60" s="1">
-        <v>-66.06692</v>
+        <v>-66.13437499999999</v>
       </c>
       <c r="FK60" s="1">
-        <v>-91.52812899999999</v>
+        <v>-91.55976799999999</v>
       </c>
       <c r="FL60" s="1">
-        <v>-85.973112</v>
+        <v>-85.797293</v>
       </c>
       <c r="FM60" s="1">
-        <v>-91.52812899999999</v>
+        <v>-91.55976799999999</v>
       </c>
       <c r="FN60" s="1">
-        <v>-85.973112</v>
+        <v>-85.797293</v>
       </c>
     </row>
     <row r="61" spans="1:170" s="1" customFormat="1">
